--- a/GeneralNotes/الاجازات لعام 2018.xlsx
+++ b/GeneralNotes/الاجازات لعام 2018.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t xml:space="preserve">اليوم </t>
   </si>
@@ -56,6 +56,39 @@
   </si>
   <si>
     <t>يوم بعد اجازة شم النسيم -باذن من الشبح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الخميس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">المتبقي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجازة اعتيادية باذن </t>
+  </si>
+  <si>
+    <t>16/5/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعب ابو النور </t>
+  </si>
+  <si>
+    <t>17/5/2018</t>
+  </si>
+  <si>
+    <t>18/5/2018</t>
+  </si>
+  <si>
+    <t>الاحد</t>
+  </si>
+  <si>
+    <t>السبت</t>
+  </si>
+  <si>
+    <t>23/6//2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مش فاكر </t>
   </si>
 </sst>
 </file>
@@ -125,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -134,6 +167,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:T22"/>
+  <dimension ref="E1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +496,13 @@
     <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -478,13 +520,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -493,136 +537,196 @@
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2">
+      <c r="O2">
         <v>3.5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S3">
+      <c r="O3">
         <v>21</v>
       </c>
-      <c r="T3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
+    <row r="4" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="3">
-        <v>43377</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>43224</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="K5" s="3">
+        <v>43377</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3">
+        <v>43164</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="3">
+        <v>43165</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -632,7 +736,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -641,8 +745,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <f>SUM(O3,(F2:F23))</f>
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -652,7 +763,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="5:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -722,6 +833,16 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
+    <row r="23" spans="5:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J2:J3"/>

--- a/GeneralNotes/الاجازات لعام 2018.xlsx
+++ b/GeneralNotes/الاجازات لعام 2018.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve">اليوم </t>
   </si>
@@ -89,13 +90,56 @@
   </si>
   <si>
     <t xml:space="preserve">مش فاكر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">السبت </t>
+  </si>
+  <si>
+    <t>14/7/2018</t>
+  </si>
+  <si>
+    <t>21/7/2018</t>
+  </si>
+  <si>
+    <t>26/7/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحاليل ابو النور </t>
+  </si>
+  <si>
+    <t>اضافة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important dates </t>
+  </si>
+  <si>
+    <t>day of add new Bank interest</t>
+  </si>
+  <si>
+    <t>month of the First Borrow-sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month of Last Gam3eah </t>
+  </si>
+  <si>
+    <t>last amount in our NPE-B</t>
+  </si>
+  <si>
+    <t>263,500,00</t>
+  </si>
+  <si>
+    <t>serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +160,15 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +181,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,11 +223,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -177,6 +272,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:P23"/>
+  <dimension ref="D1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="B76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +640,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -552,7 +664,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,7 +830,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
@@ -728,50 +842,82 @@
     </row>
     <row r="13" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="J13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3">
+        <v>43288</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="O14">
+      <c r="J14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="7">
         <f>SUM(O3,(F2:F23))</f>
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="J15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="5:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="5:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
@@ -843,6 +989,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
+    <row r="53" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D53" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J2:J3"/>
@@ -850,4 +1001,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43107</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43109</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>